--- a/SchedulerImplementation/Figures/ImplementationComplexit.xlsx
+++ b/SchedulerImplementation/Figures/ImplementationComplexit.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18720" windowHeight="7500" tabRatio="256" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18720" windowHeight="7500" tabRatio="256" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="8 antenna" sheetId="3" r:id="rId3"/>
     <sheet name="4 antenna" sheetId="4" r:id="rId4"/>
+    <sheet name="ACP Interface - SQRT-HW" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
   <si>
     <t>N_T x N_R x K x Algorithm</t>
   </si>
@@ -197,6 +198,9 @@
   </si>
   <si>
     <t>4x2x50 P (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ (4,0)(43,0)(5,0)(14,1)(10,0)(23,0)(13,0)(23,0) ] </t>
   </si>
 </sst>
 </file>
@@ -3154,9 +3158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K36" sqref="K36"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.28515625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5469,4 +5473,1170 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="14"/>
+    <col min="2" max="7" width="18.140625" style="8"/>
+    <col min="8" max="8" width="18.140625" style="9"/>
+    <col min="9" max="10" width="18.140625" style="8"/>
+    <col min="11" max="11" width="18.140625" style="10"/>
+    <col min="12" max="16384" width="18.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="8">
+        <v>333000</v>
+      </c>
+      <c r="D1" s="8">
+        <v>333000</v>
+      </c>
+      <c r="E1" s="8">
+        <v>333000</v>
+      </c>
+      <c r="F1" s="8">
+        <v>333000</v>
+      </c>
+      <c r="G1" s="8">
+        <v>333000</v>
+      </c>
+      <c r="H1" s="9">
+        <v>333000</v>
+      </c>
+      <c r="I1" s="8">
+        <v>333000</v>
+      </c>
+      <c r="J1" s="8">
+        <v>333000</v>
+      </c>
+      <c r="K1" s="10">
+        <v>333000</v>
+      </c>
+      <c r="L1" s="8">
+        <v>333000</v>
+      </c>
+      <c r="M1" s="8">
+        <v>333000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4294967232</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4294962784</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4294067894</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4293928219</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4293913797</v>
+      </c>
+      <c r="H5" s="9">
+        <v>4290114224</v>
+      </c>
+      <c r="I5" s="8">
+        <v>4290105497</v>
+      </c>
+      <c r="J5" s="8">
+        <v>4289156331</v>
+      </c>
+      <c r="K5" s="10">
+        <v>4289125214</v>
+      </c>
+      <c r="L5" s="8">
+        <v>4288574591</v>
+      </c>
+      <c r="M5" s="8">
+        <v>4283798152</v>
+      </c>
+      <c r="N5" s="8">
+        <v>4282872318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="8">
+        <f>(C5-D5)/C1</f>
+        <v>1.3357357357357358E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" ref="E6:N6" si="0">(D5-E5)/D1</f>
+        <v>2.6873573573573575</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.3309309309309311E-2</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>11.410129129129128</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="0"/>
+        <v>2.6207207207207206E-2</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="0"/>
+        <v>2.8503483483483483</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="0"/>
+        <v>9.3444444444444441E-2</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6535225225225225</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="0"/>
+        <v>14.34366066066066</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7802822822822821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4294967224</v>
+      </c>
+      <c r="D7" s="8">
+        <v>4294962790</v>
+      </c>
+      <c r="E7" s="8">
+        <v>4294069659</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4293930208</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4293916167</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4290110950</v>
+      </c>
+      <c r="I7" s="8">
+        <v>4290102209</v>
+      </c>
+      <c r="J7" s="8">
+        <v>4289154807</v>
+      </c>
+      <c r="K7" s="10">
+        <v>4289126601</v>
+      </c>
+      <c r="L7" s="8">
+        <v>4288572522</v>
+      </c>
+      <c r="M7" s="8">
+        <v>4283796860</v>
+      </c>
+      <c r="N7" s="8">
+        <v>4282870995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="8">
+        <f>(C7-D7)/C1</f>
+        <v>1.3315315315315315E-2</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" ref="E8:N8" si="1">(D7-E7)/D1</f>
+        <v>2.6820750750750753</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.41877177177177177</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="1"/>
+        <v>4.2165165165165164E-2</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="1"/>
+        <v>11.427078078078079</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="1"/>
+        <v>2.6249249249249249E-2</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="1"/>
+        <v>2.8450510510510512</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="1"/>
+        <v>8.4702702702702706E-2</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6639009009009009</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="1"/>
+        <v>14.341327327327328</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="1"/>
+        <v>2.7803753753753755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>4294967225</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4294962770</v>
+      </c>
+      <c r="E9" s="11">
+        <v>4294067059</v>
+      </c>
+      <c r="F9" s="11">
+        <v>4293985080</v>
+      </c>
+      <c r="G9" s="11">
+        <v>4293973948</v>
+      </c>
+      <c r="H9" s="11">
+        <v>4292897913</v>
+      </c>
+      <c r="I9" s="11">
+        <v>4291458317</v>
+      </c>
+      <c r="J9" s="11">
+        <v>4290274270</v>
+      </c>
+      <c r="K9" s="11">
+        <v>4290247916</v>
+      </c>
+      <c r="L9" s="11">
+        <v>4289691801</v>
+      </c>
+      <c r="M9" s="11">
+        <v>4284886376</v>
+      </c>
+      <c r="N9" s="11">
+        <v>4283960550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="D10" s="11">
+        <f>(C9-D9)/C1</f>
+        <v>1.3378378378378379E-2</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" ref="E10:N10" si="2">(D9-E9)/D1</f>
+        <v>2.6898228228228227</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="2"/>
+        <v>0.24618318318318319</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="2"/>
+        <v>3.3429429429429426E-2</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="2"/>
+        <v>3.2313363363363363</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="2"/>
+        <v>4.3231111111111113</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="2"/>
+        <v>3.5556966966966965</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="2"/>
+        <v>7.9141141141141139E-2</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" si="2"/>
+        <v>1.670015015015015</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="2"/>
+        <v>14.430705705705705</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" si="2"/>
+        <v>2.7802582582582582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11">
+        <v>4294967225</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4294962772</v>
+      </c>
+      <c r="E11" s="11">
+        <v>4294069640</v>
+      </c>
+      <c r="F11" s="11">
+        <v>4293987547</v>
+      </c>
+      <c r="G11" s="11">
+        <v>4293976485</v>
+      </c>
+      <c r="H11" s="11">
+        <v>4292900444</v>
+      </c>
+      <c r="I11" s="11">
+        <v>4291459755</v>
+      </c>
+      <c r="J11" s="11">
+        <v>4290275707</v>
+      </c>
+      <c r="K11" s="11">
+        <v>4290251730</v>
+      </c>
+      <c r="L11" s="11">
+        <v>4289692566</v>
+      </c>
+      <c r="M11" s="11">
+        <v>4284887298</v>
+      </c>
+      <c r="N11" s="11">
+        <v>4283961427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="D12" s="11">
+        <f>(C11-D11)/C1</f>
+        <v>1.3372372372372373E-2</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" ref="E12:N12" si="3">(D11-E11)/D1</f>
+        <v>2.682078078078078</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="3"/>
+        <v>0.24652552552552554</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="3"/>
+        <v>3.321921921921922E-2</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="3"/>
+        <v>3.2313543543543544</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="3"/>
+        <v>4.3263933933933938</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="3"/>
+        <v>3.5556996996996997</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="3"/>
+        <v>7.2003003003002997E-2</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="3"/>
+        <v>1.6791711711711712</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="3"/>
+        <v>14.430234234234234</v>
+      </c>
+      <c r="N12" s="11">
+        <f t="shared" si="3"/>
+        <v>2.7803933933933935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4294967225</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4294962780</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4294068378</v>
+      </c>
+      <c r="F13" s="8">
+        <v>4293928938</v>
+      </c>
+      <c r="G13" s="8">
+        <v>4293914855</v>
+      </c>
+      <c r="H13" s="9">
+        <v>4290109626</v>
+      </c>
+      <c r="I13" s="8">
+        <v>4290100920</v>
+      </c>
+      <c r="J13" s="8">
+        <v>4289152142</v>
+      </c>
+      <c r="K13" s="10">
+        <v>4288476192</v>
+      </c>
+      <c r="L13" s="8">
+        <v>4288472176</v>
+      </c>
+      <c r="M13" s="8">
+        <v>4283725009</v>
+      </c>
+      <c r="N13" s="8">
+        <v>4282799176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="8">
+        <f>(C13-D13)/C1</f>
+        <v>1.3348348348348348E-2</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" ref="E14:N14" si="4">(D13-E13)/D1</f>
+        <v>2.6858918918918917</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="4"/>
+        <v>0.41873873873873874</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="4"/>
+        <v>4.2291291291291291E-2</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="4"/>
+        <v>11.427114114114113</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="4"/>
+        <v>2.6144144144144146E-2</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="4"/>
+        <v>2.8491831831831833</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="4"/>
+        <v>2.0298798798798798</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="4"/>
+        <v>1.206006006006006E-2</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="4"/>
+        <v>14.255756756756757</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="4"/>
+        <v>2.7802792792792794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="8">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4294967223</v>
+      </c>
+      <c r="D15" s="8">
+        <v>4294962790</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4294067330</v>
+      </c>
+      <c r="F15" s="8">
+        <v>4293927887</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4293913835</v>
+      </c>
+      <c r="H15" s="9">
+        <v>4290108598</v>
+      </c>
+      <c r="I15" s="8">
+        <v>4290099911</v>
+      </c>
+      <c r="J15" s="8">
+        <v>4289153408</v>
+      </c>
+      <c r="K15" s="10">
+        <v>4288753095</v>
+      </c>
+      <c r="L15" s="8">
+        <v>4288571638</v>
+      </c>
+      <c r="M15" s="8">
+        <v>4283823471</v>
+      </c>
+      <c r="N15" s="8">
+        <v>4282897635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="8">
+        <f>(C15-D15)/C1</f>
+        <v>1.3312312312312313E-2</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" ref="E16:N16" si="5">(D15-E15)/D1</f>
+        <v>2.6890690690690691</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="5"/>
+        <v>0.41874774774774776</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="5"/>
+        <v>4.21981981981982E-2</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="5"/>
+        <v>11.427138138138139</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="5"/>
+        <v>2.6087087087087086E-2</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="5"/>
+        <v>2.8423513513513514</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="5"/>
+        <v>1.2021411411411411</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="5"/>
+        <v>0.54491591591591593</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="5"/>
+        <v>14.25875975975976</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="5"/>
+        <v>2.7802882882882884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="11">
+        <v>7</v>
+      </c>
+      <c r="C17" s="11">
+        <v>4294967224</v>
+      </c>
+      <c r="D17" s="11">
+        <v>4294962789</v>
+      </c>
+      <c r="E17" s="11">
+        <v>4294068266</v>
+      </c>
+      <c r="F17" s="11">
+        <v>4293986256</v>
+      </c>
+      <c r="G17" s="11">
+        <v>4293975078</v>
+      </c>
+      <c r="H17" s="11">
+        <v>4292899083</v>
+      </c>
+      <c r="I17" s="11">
+        <v>4291459234</v>
+      </c>
+      <c r="J17" s="11">
+        <v>4290275191</v>
+      </c>
+      <c r="K17" s="11">
+        <v>4289867153</v>
+      </c>
+      <c r="L17" s="11">
+        <v>4289694163</v>
+      </c>
+      <c r="M17" s="11">
+        <v>4284859696</v>
+      </c>
+      <c r="N17" s="11">
+        <v>4283933826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="D18" s="11">
+        <f>(C17-D17)/C1</f>
+        <v>1.3318318318318319E-2</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" ref="E18:N18" si="6">(D17-E17)/D1</f>
+        <v>2.6862552552552552</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="6"/>
+        <v>0.24627627627627627</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="6"/>
+        <v>3.3567567567567569E-2</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="6"/>
+        <v>3.2312162162162164</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="6"/>
+        <v>4.3238708708708709</v>
+      </c>
+      <c r="J18" s="11">
+        <f t="shared" si="6"/>
+        <v>3.5556846846846848</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="shared" si="6"/>
+        <v>1.2253393393393393</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="6"/>
+        <v>0.51948948948948948</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="6"/>
+        <v>14.51791891891892</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="6"/>
+        <v>2.7803903903903904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="11">
+        <v>8</v>
+      </c>
+      <c r="C19" s="11">
+        <v>4294967224</v>
+      </c>
+      <c r="D19" s="11">
+        <v>4294962768</v>
+      </c>
+      <c r="E19" s="11">
+        <v>4294066809</v>
+      </c>
+      <c r="F19" s="11">
+        <v>4293984852</v>
+      </c>
+      <c r="G19" s="11">
+        <v>4293973772</v>
+      </c>
+      <c r="H19" s="11">
+        <v>4292897788</v>
+      </c>
+      <c r="I19" s="11">
+        <v>4291457865</v>
+      </c>
+      <c r="J19" s="11">
+        <v>4290273821</v>
+      </c>
+      <c r="K19" s="11">
+        <v>4290008662</v>
+      </c>
+      <c r="L19" s="11">
+        <v>4289691403</v>
+      </c>
+      <c r="M19" s="11">
+        <v>4284856681</v>
+      </c>
+      <c r="N19" s="11">
+        <v>4283930875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="D20" s="11">
+        <f>(C19-D19)/C1</f>
+        <v>1.3381381381381381E-2</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" ref="E20:N20" si="7">(D19-E19)/D1</f>
+        <v>2.6905675675675678</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="7"/>
+        <v>0.24611711711711712</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="7"/>
+        <v>3.3273273273273271E-2</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="7"/>
+        <v>3.231183183183183</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="7"/>
+        <v>4.3240930930930928</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="7"/>
+        <v>3.5556876876876875</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="7"/>
+        <v>0.79627327327327324</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="7"/>
+        <v>0.95272972972972969</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" si="7"/>
+        <v>14.518684684684684</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" si="7"/>
+        <v>2.7801981981981982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="8">
+        <v>9</v>
+      </c>
+      <c r="C21" s="8">
+        <v>4294967230</v>
+      </c>
+      <c r="D21" s="8">
+        <v>4294962776</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4294069320</v>
+      </c>
+      <c r="F21" s="8">
+        <v>4293929637</v>
+      </c>
+      <c r="G21" s="8">
+        <v>4293915168</v>
+      </c>
+      <c r="H21" s="9">
+        <v>4290115700</v>
+      </c>
+      <c r="I21" s="8">
+        <v>4290106982</v>
+      </c>
+      <c r="J21" s="8">
+        <v>4289158602</v>
+      </c>
+      <c r="K21" s="10">
+        <v>4288863921</v>
+      </c>
+      <c r="L21" s="8">
+        <v>4288576827</v>
+      </c>
+      <c r="M21" s="8">
+        <v>4283771941</v>
+      </c>
+      <c r="N21" s="8">
+        <v>4282846079</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="8">
+        <f>(C21-D21)/C1</f>
+        <v>1.3375375375375375E-2</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" ref="E22:N22" si="8">(D21-E21)/D1</f>
+        <v>2.6830510510510512</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="8"/>
+        <v>0.41946846846846847</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="8"/>
+        <v>4.3450450450450449E-2</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="8"/>
+        <v>11.409813813813814</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="8"/>
+        <v>2.6180180180180181E-2</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="8"/>
+        <v>2.8479879879879881</v>
+      </c>
+      <c r="K22" s="13">
+        <f t="shared" si="8"/>
+        <v>0.88492792792792796</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="8"/>
+        <v>0.8621441441441442</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="8"/>
+        <v>14.429087087087087</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="8"/>
+        <v>2.7803663663663665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="8">
+        <v>10</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4294967222</v>
+      </c>
+      <c r="D23" s="8">
+        <v>4294962765</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4294068099</v>
+      </c>
+      <c r="F23" s="8">
+        <v>4293930126</v>
+      </c>
+      <c r="G23" s="8">
+        <v>4293915736</v>
+      </c>
+      <c r="H23" s="9">
+        <v>4290116163</v>
+      </c>
+      <c r="I23" s="8">
+        <v>4290107447</v>
+      </c>
+      <c r="J23" s="8">
+        <v>4289158542</v>
+      </c>
+      <c r="K23" s="10">
+        <v>4288499809</v>
+      </c>
+      <c r="L23" s="8">
+        <v>4288495932</v>
+      </c>
+      <c r="M23" s="8">
+        <v>4283688690</v>
+      </c>
+      <c r="N23" s="8">
+        <v>4282762855</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="8">
+        <f>(C23-D23)/C1</f>
+        <v>1.3384384384384385E-2</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" ref="E24:N24" si="9">(D23-E23)/D1</f>
+        <v>2.6866846846846846</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="9"/>
+        <v>0.41433333333333333</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="9"/>
+        <v>4.3213213213213211E-2</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="9"/>
+        <v>11.410129129129128</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="9"/>
+        <v>2.6174174174174173E-2</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" si="9"/>
+        <v>2.8495645645645644</v>
+      </c>
+      <c r="K24" s="8">
+        <f>(J23-K23)/J1</f>
+        <v>1.9781771771771772</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="9"/>
+        <v>1.1642642642642642E-2</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" si="9"/>
+        <v>14.436162162162162</v>
+      </c>
+      <c r="N24" s="8">
+        <f t="shared" si="9"/>
+        <v>2.7802852852852853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="11">
+        <v>11</v>
+      </c>
+      <c r="C25" s="11">
+        <v>4294967225</v>
+      </c>
+      <c r="D25" s="11">
+        <v>4294962757</v>
+      </c>
+      <c r="E25" s="11">
+        <v>4294068305</v>
+      </c>
+      <c r="F25" s="11">
+        <v>4293930329</v>
+      </c>
+      <c r="G25" s="11">
+        <v>4293915903</v>
+      </c>
+      <c r="H25" s="11">
+        <v>4290116326</v>
+      </c>
+      <c r="I25" s="11">
+        <v>4290107626</v>
+      </c>
+      <c r="J25" s="11">
+        <v>4289160570</v>
+      </c>
+      <c r="K25" s="11">
+        <v>4286987991</v>
+      </c>
+      <c r="L25" s="11">
+        <v>4286984061</v>
+      </c>
+      <c r="M25" s="11">
+        <v>4282235620</v>
+      </c>
+      <c r="N25" s="11">
+        <v>4281309748</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="D26" s="11">
+        <f>(C25-D25)/C1</f>
+        <v>1.3417417417417418E-2</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" ref="E26:N26" si="10">(D25-E25)/D1</f>
+        <v>2.6860420420420419</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="10"/>
+        <v>0.41434234234234235</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="10"/>
+        <v>4.332132132132132E-2</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="10"/>
+        <v>11.410141141141141</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="10"/>
+        <v>2.6126126126126126E-2</v>
+      </c>
+      <c r="J26" s="11">
+        <f t="shared" si="10"/>
+        <v>2.844012012012012</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="10"/>
+        <v>6.5242612612612616</v>
+      </c>
+      <c r="L26" s="11">
+        <f t="shared" si="10"/>
+        <v>1.1801801801801801E-2</v>
+      </c>
+      <c r="M26" s="11">
+        <f t="shared" si="10"/>
+        <v>14.259582582582583</v>
+      </c>
+      <c r="N26" s="11">
+        <f t="shared" si="10"/>
+        <v>2.7803963963963962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="11">
+        <v>12</v>
+      </c>
+      <c r="C27" s="11">
+        <v>4294967229</v>
+      </c>
+      <c r="D27" s="11">
+        <v>4294962792</v>
+      </c>
+      <c r="E27" s="11">
+        <v>4294066935</v>
+      </c>
+      <c r="F27" s="11">
+        <v>4293928900</v>
+      </c>
+      <c r="G27" s="11">
+        <v>4293915866</v>
+      </c>
+      <c r="H27" s="11">
+        <v>4290114669</v>
+      </c>
+      <c r="I27" s="11">
+        <v>4290105947</v>
+      </c>
+      <c r="J27" s="11">
+        <v>4289158174</v>
+      </c>
+      <c r="K27" s="11">
+        <v>4288096319</v>
+      </c>
+      <c r="L27" s="11">
+        <v>4288092332</v>
+      </c>
+      <c r="M27" s="11">
+        <v>4283345002</v>
+      </c>
+      <c r="N27" s="11">
+        <v>4282419162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="D28" s="11">
+        <f>(C27-D27)/C1</f>
+        <v>1.3324324324324325E-2</v>
+      </c>
+      <c r="E28" s="11">
+        <f t="shared" ref="E28:N28" si="11">(D27-E27)/D1</f>
+        <v>2.6902612612612611</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" si="11"/>
+        <v>0.41451951951951954</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="11"/>
+        <v>3.9141141141141138E-2</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" si="11"/>
+        <v>11.415006006006006</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" si="11"/>
+        <v>2.6192192192192192E-2</v>
+      </c>
+      <c r="J28" s="11">
+        <f t="shared" si="11"/>
+        <v>2.8461651651651652</v>
+      </c>
+      <c r="K28" s="11">
+        <f t="shared" si="11"/>
+        <v>3.1887537537537538</v>
+      </c>
+      <c r="L28" s="11">
+        <f t="shared" si="11"/>
+        <v>1.1972972972972973E-2</v>
+      </c>
+      <c r="M28" s="11">
+        <f t="shared" si="11"/>
+        <v>14.256246246246246</v>
+      </c>
+      <c r="N28" s="11">
+        <f t="shared" si="11"/>
+        <v>2.7803003003003002</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SchedulerImplementation/Figures/ImplementationComplexit.xlsx
+++ b/SchedulerImplementation/Figures/ImplementationComplexit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18720" windowHeight="7500" tabRatio="256" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18720" windowHeight="7500" tabRatio="428" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="8 antenna" sheetId="3" r:id="rId3"/>
     <sheet name="4 antenna" sheetId="4" r:id="rId4"/>
     <sheet name="ACP Interface - SQRT-HW" sheetId="5" r:id="rId5"/>
+    <sheet name="TI 8 Antenna Greedy" sheetId="8" r:id="rId6"/>
+    <sheet name="TI 8 Antenna SUCCPROJ" sheetId="9" r:id="rId7"/>
+    <sheet name="TI 8 Antenna PIPD" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="102">
   <si>
     <t>N_T x N_R x K x Algorithm</t>
   </si>
@@ -201,13 +204,136 @@
   </si>
   <si>
     <t xml:space="preserve">[ (4,0)(43,0)(5,0)(14,1)(10,0)(23,0)(13,0)(23,0) ] </t>
+  </si>
+  <si>
+    <t>initialized system</t>
+  </si>
+  <si>
+    <t>starting channel update</t>
+  </si>
+  <si>
+    <t>started svd</t>
+  </si>
+  <si>
+    <t>displaying sched info</t>
+  </si>
+  <si>
+    <t>cleaning memory</t>
+  </si>
+  <si>
+    <t>completed executing</t>
+  </si>
+  <si>
+    <t>C66x clock</t>
+  </si>
+  <si>
+    <t>Channel Update Time</t>
+  </si>
+  <si>
+    <t>SVD Completion</t>
+  </si>
+  <si>
+    <t>Interrupt Wait</t>
+  </si>
+  <si>
+    <t>Scheduler Completion</t>
+  </si>
+  <si>
+    <t>8x4x100 G (4)</t>
+  </si>
+  <si>
+    <t>8x4x100 G (2)</t>
+  </si>
+  <si>
+    <t>8x2x100 G (2)</t>
+  </si>
+  <si>
+    <t>8x2x100 G (1)</t>
+  </si>
+  <si>
+    <t>8x4x100 P (4)</t>
+  </si>
+  <si>
+    <t>8x4x100 P (2)</t>
+  </si>
+  <si>
+    <t>8x2x100 P (2)</t>
+  </si>
+  <si>
+    <t>8x2x100 P (1)</t>
+  </si>
+  <si>
+    <t>single core svd</t>
+  </si>
+  <si>
+    <t>8x4x100 SP (4)</t>
+  </si>
+  <si>
+    <t>8x4x100 SP (2)</t>
+  </si>
+  <si>
+    <t>8x2x100 SP (2)</t>
+  </si>
+  <si>
+    <t>8x2x100 SP (1)</t>
+  </si>
+  <si>
+    <t>Model (Nt x Nr x K) (Ns)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ (87,1)(65,2)(89,0)(19,1)(4,2)(70,0)(81,2)(4,1) ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ (25,0)(10,0)(24,0)(68,0)(24,1)(49,1)(90,0)(66,1) ] </t>
+  </si>
+  <si>
+    <t>4x4x100 G (4)</t>
+  </si>
+  <si>
+    <t>4x2x100 G (2)</t>
+  </si>
+  <si>
+    <t>4x2x100 G (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ (97,2)(97,1)(96,1)(25,0) ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ (7,0)(63,0)(90,0)(83,0) ] </t>
+  </si>
+  <si>
+    <t>4x4x100 SP (4)</t>
+  </si>
+  <si>
+    <t>4x2x100 SP (2)</t>
+  </si>
+  <si>
+    <t>4x2x100 SP (1)</t>
+  </si>
+  <si>
+    <t>4x4x100 SP (2)</t>
+  </si>
+  <si>
+    <t>4x4x100 G (2)</t>
+  </si>
+  <si>
+    <t>4x4x100 P (4)</t>
+  </si>
+  <si>
+    <t>4x4x100 P (2)</t>
+  </si>
+  <si>
+    <t>4x2x100 P (2)</t>
+  </si>
+  <si>
+    <t>4x2x100 P (1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,8 +370,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +448,22 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -348,7 +504,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -360,8 +516,11 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -408,8 +567,36 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="14">
+    <cellStyle name="20% - Accent1" xfId="13" builtinId="30"/>
     <cellStyle name="20% - Accent3" xfId="10" builtinId="38"/>
     <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
     <cellStyle name="20% - Accent6" xfId="5" builtinId="50"/>
@@ -417,7 +604,9 @@
     <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
     <cellStyle name="60% - Accent6" xfId="6" builtinId="52"/>
     <cellStyle name="Accent3" xfId="1" builtinId="37"/>
+    <cellStyle name="Bad" xfId="12" builtinId="27"/>
     <cellStyle name="Calculation" xfId="8" builtinId="22"/>
+    <cellStyle name="Good" xfId="11" builtinId="26"/>
     <cellStyle name="Neutral" xfId="7" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="9" builtinId="10"/>
@@ -3159,8 +3348,8 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.28515625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4320,11 +4509,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P14" sqref="P14"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.28515625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4451,7 +4640,7 @@
         <f t="shared" si="0"/>
         <v>3.3558558558558556E-2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="16">
         <f t="shared" si="0"/>
         <v>5.1696366366366364</v>
       </c>
@@ -5468,6 +5657,48 @@
       <c r="N28" s="11">
         <f t="shared" si="11"/>
         <v>2.7803093093093092</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="8">
+        <v>1220000</v>
+      </c>
+      <c r="H33" s="8">
+        <v>1220000</v>
+      </c>
+      <c r="I33" s="8">
+        <v>1220000</v>
+      </c>
+      <c r="J33" s="8">
+        <v>1220000</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="8">
+        <v>1566840663</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1567034154</v>
+      </c>
+      <c r="I34" s="8">
+        <v>1567044411</v>
+      </c>
+      <c r="J34" s="8">
+        <v>1571260751</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="9">
+        <f>(H34-G34)/G33</f>
+        <v>0.15859918032786885</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" ref="I35" si="12">(I34-H34)/H33</f>
+        <v>8.4073770491803271E-3</v>
+      </c>
+      <c r="J35" s="9">
+        <f>(J34-I34)/I33</f>
+        <v>3.4560163934426229</v>
       </c>
     </row>
   </sheetData>
@@ -5479,7 +5710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -6639,4 +6870,2290 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" style="14"/>
+    <col min="2" max="7" width="23" style="8"/>
+    <col min="8" max="8" width="23" style="17"/>
+    <col min="9" max="9" width="23" style="1"/>
+    <col min="10" max="10" width="23" style="13"/>
+    <col min="11" max="11" width="23" style="8"/>
+    <col min="12" max="12" width="23" style="1"/>
+    <col min="13" max="16384" width="23" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="8">
+        <v>1220000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22">
+        <v>22.686581147540984</v>
+      </c>
+      <c r="D5" s="22">
+        <v>3404591507</v>
+      </c>
+      <c r="E5" s="22">
+        <v>3404613269</v>
+      </c>
+      <c r="F5" s="22">
+        <v>3408568385</v>
+      </c>
+      <c r="G5" s="22">
+        <v>3408586731</v>
+      </c>
+      <c r="H5" s="23">
+        <v>3412127229</v>
+      </c>
+      <c r="I5" s="23">
+        <v>3412139635</v>
+      </c>
+      <c r="J5" s="22">
+        <v>3412232158</v>
+      </c>
+      <c r="K5" s="22">
+        <v>3412259085</v>
+      </c>
+      <c r="L5" s="23">
+        <v>3412349706</v>
+      </c>
+      <c r="M5" s="22">
+        <v>3412356920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="E6" s="22">
+        <f>(E5-D5)/1220000</f>
+        <v>1.7837704918032788E-2</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" ref="F6:M6" si="0">(F5-E5)/1220000</f>
+        <v>3.2418983606557377</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="0"/>
+        <v>1.5037704918032788E-2</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" si="0"/>
+        <v>2.9020475409836064</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="0"/>
+        <v>1.0168852459016393E-2</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="0"/>
+        <v>7.5838524590163936E-2</v>
+      </c>
+      <c r="K6" s="22">
+        <f t="shared" si="0"/>
+        <v>2.2071311475409836E-2</v>
+      </c>
+      <c r="L6" s="22">
+        <f t="shared" si="0"/>
+        <v>7.4279508196721314E-2</v>
+      </c>
+      <c r="M6" s="22">
+        <f t="shared" si="0"/>
+        <v>5.9131147540983607E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="22">
+        <v>2</v>
+      </c>
+      <c r="C7" s="22">
+        <v>22.686581147540984</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1650814010</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1650835772</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1654790894</v>
+      </c>
+      <c r="G7" s="22">
+        <v>1654809240</v>
+      </c>
+      <c r="H7" s="23">
+        <v>1658349737</v>
+      </c>
+      <c r="I7" s="23">
+        <v>1658362143</v>
+      </c>
+      <c r="J7" s="22">
+        <v>1658440640</v>
+      </c>
+      <c r="K7" s="22">
+        <v>1658467567</v>
+      </c>
+      <c r="L7" s="23">
+        <v>1658558188</v>
+      </c>
+      <c r="M7" s="22">
+        <v>1658565402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="E8" s="22">
+        <f>(E7-D7)/1220000</f>
+        <v>1.7837704918032788E-2</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" ref="F8:M8" si="1">(F7-E7)/1220000</f>
+        <v>3.2419032786885245</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="1"/>
+        <v>1.5037704918032788E-2</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="1"/>
+        <v>2.9020467213114753</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="1"/>
+        <v>1.0168852459016393E-2</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="1"/>
+        <v>6.434180327868852E-2</v>
+      </c>
+      <c r="K8" s="22">
+        <f t="shared" si="1"/>
+        <v>2.2071311475409836E-2</v>
+      </c>
+      <c r="L8" s="22">
+        <f t="shared" si="1"/>
+        <v>7.4279508196721314E-2</v>
+      </c>
+      <c r="M8" s="22">
+        <f t="shared" si="1"/>
+        <v>5.9131147540983607E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="22">
+        <v>3</v>
+      </c>
+      <c r="C9" s="22">
+        <v>6.0554721310000001</v>
+      </c>
+      <c r="D9" s="22">
+        <v>4221967841</v>
+      </c>
+      <c r="E9" s="22">
+        <v>4221989582</v>
+      </c>
+      <c r="F9" s="22">
+        <v>4224093209</v>
+      </c>
+      <c r="G9" s="22">
+        <v>4224111522</v>
+      </c>
+      <c r="H9" s="23">
+        <v>4225087140</v>
+      </c>
+      <c r="I9" s="23">
+        <v>4225096279</v>
+      </c>
+      <c r="J9" s="22">
+        <v>4225174095</v>
+      </c>
+      <c r="K9" s="22">
+        <v>4225200899</v>
+      </c>
+      <c r="L9" s="23">
+        <v>4225291497</v>
+      </c>
+      <c r="M9" s="22">
+        <v>4225298717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="E10" s="22">
+        <f>(E9-D9)/1220000</f>
+        <v>1.7820491803278687E-2</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" ref="F10:M10" si="2">(F9-E9)/1220000</f>
+        <v>1.7242844262295083</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="2"/>
+        <v>1.5010655737704917E-2</v>
+      </c>
+      <c r="H10" s="22">
+        <f t="shared" si="2"/>
+        <v>0.79968688524590159</v>
+      </c>
+      <c r="I10" s="22">
+        <f t="shared" si="2"/>
+        <v>7.4909836065573769E-3</v>
+      </c>
+      <c r="J10" s="22">
+        <f t="shared" si="2"/>
+        <v>6.3783606557377054E-2</v>
+      </c>
+      <c r="K10" s="22">
+        <f t="shared" si="2"/>
+        <v>2.1970491803278688E-2</v>
+      </c>
+      <c r="L10" s="22">
+        <f t="shared" si="2"/>
+        <v>7.426065573770492E-2</v>
+      </c>
+      <c r="M10" s="22">
+        <f t="shared" si="2"/>
+        <v>5.9180327868852455E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="22">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22">
+        <v>6.0554721310000001</v>
+      </c>
+      <c r="D11" s="22">
+        <v>3177599932</v>
+      </c>
+      <c r="E11" s="22">
+        <v>3177621673</v>
+      </c>
+      <c r="F11" s="22">
+        <v>3179725306</v>
+      </c>
+      <c r="G11" s="22">
+        <v>3179743619</v>
+      </c>
+      <c r="H11" s="23">
+        <v>3180719237</v>
+      </c>
+      <c r="I11" s="23">
+        <v>3180728376</v>
+      </c>
+      <c r="J11" s="22">
+        <v>3180799585</v>
+      </c>
+      <c r="K11" s="22">
+        <v>3180826374</v>
+      </c>
+      <c r="L11" s="23">
+        <v>3180916700</v>
+      </c>
+      <c r="M11" s="22">
+        <v>3180923920</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="E12" s="22">
+        <f>(E11-D11)/1220000</f>
+        <v>1.7820491803278687E-2</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" ref="F12:M12" si="3">(F11-E11)/1220000</f>
+        <v>1.7242893442622951</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="3"/>
+        <v>1.5010655737704917E-2</v>
+      </c>
+      <c r="H12" s="22">
+        <f t="shared" si="3"/>
+        <v>0.79968688524590159</v>
+      </c>
+      <c r="I12" s="22">
+        <f t="shared" si="3"/>
+        <v>7.4909836065573769E-3</v>
+      </c>
+      <c r="J12" s="22">
+        <f t="shared" si="3"/>
+        <v>5.8368032786885245E-2</v>
+      </c>
+      <c r="K12" s="22">
+        <f t="shared" si="3"/>
+        <v>2.1958196721311475E-2</v>
+      </c>
+      <c r="L12" s="22">
+        <f t="shared" si="3"/>
+        <v>7.4037704918032785E-2</v>
+      </c>
+      <c r="M12" s="22">
+        <f t="shared" si="3"/>
+        <v>5.9180327868852455E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:13" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="17" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="22">
+        <v>1</v>
+      </c>
+      <c r="C17" s="22">
+        <v>15.81963852</v>
+      </c>
+      <c r="D17" s="22">
+        <v>299283906</v>
+      </c>
+      <c r="E17" s="22">
+        <v>299305676</v>
+      </c>
+      <c r="F17" s="22">
+        <v>301470429</v>
+      </c>
+      <c r="G17" s="22">
+        <v>301488799</v>
+      </c>
+      <c r="H17" s="23">
+        <v>304019227</v>
+      </c>
+      <c r="I17" s="23">
+        <v>304028301</v>
+      </c>
+      <c r="J17" s="22">
+        <v>304083398</v>
+      </c>
+      <c r="K17" s="22">
+        <v>304110268</v>
+      </c>
+      <c r="L17" s="23">
+        <v>304185367</v>
+      </c>
+      <c r="M17" s="22">
+        <v>304192582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="E18" s="22">
+        <f>(E17-D17)/1220000</f>
+        <v>1.7844262295081969E-2</v>
+      </c>
+      <c r="F18" s="22">
+        <f>(F17-E17)/1220000</f>
+        <v>1.7743877049180328</v>
+      </c>
+      <c r="G18" s="22">
+        <f>(G17-F17)/1220000</f>
+        <v>1.5057377049180328E-2</v>
+      </c>
+      <c r="H18" s="22">
+        <f>(H17-G17)/1220000</f>
+        <v>2.0741213114754098</v>
+      </c>
+      <c r="I18" s="22">
+        <f>(I17-H17)/1220000</f>
+        <v>7.4377049180327868E-3</v>
+      </c>
+      <c r="J18" s="22">
+        <f>(J17-I17)/1220000</f>
+        <v>4.5161475409836067E-2</v>
+      </c>
+      <c r="K18" s="22">
+        <f>(K17-J17)/1220000</f>
+        <v>2.2024590163934425E-2</v>
+      </c>
+      <c r="L18" s="22">
+        <f>(L17-K17)/1220000</f>
+        <v>6.1556557377049181E-2</v>
+      </c>
+      <c r="M18" s="22">
+        <f>(M17-L17)/1220000</f>
+        <v>5.9139344262295083E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="22">
+        <v>2</v>
+      </c>
+      <c r="C19" s="22">
+        <v>15.81963852</v>
+      </c>
+      <c r="D19" s="22">
+        <v>304690507</v>
+      </c>
+      <c r="E19" s="22">
+        <v>304712277</v>
+      </c>
+      <c r="F19" s="22">
+        <v>306877028</v>
+      </c>
+      <c r="G19" s="22">
+        <v>306895398</v>
+      </c>
+      <c r="H19" s="23">
+        <v>309425869</v>
+      </c>
+      <c r="I19" s="23">
+        <v>309434943</v>
+      </c>
+      <c r="J19" s="22">
+        <v>309477214</v>
+      </c>
+      <c r="K19" s="22">
+        <v>309504084</v>
+      </c>
+      <c r="L19" s="23">
+        <v>309579516</v>
+      </c>
+      <c r="M19" s="22">
+        <v>309586731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="E20" s="22">
+        <f>(E19-D19)/1220000</f>
+        <v>1.7844262295081969E-2</v>
+      </c>
+      <c r="F20" s="22">
+        <f>(F19-E19)/1220000</f>
+        <v>1.7743860655737704</v>
+      </c>
+      <c r="G20" s="22">
+        <f>(G19-F19)/1220000</f>
+        <v>1.5057377049180328E-2</v>
+      </c>
+      <c r="H20" s="22">
+        <f>(H19-G19)/1220000</f>
+        <v>2.0741565573770493</v>
+      </c>
+      <c r="I20" s="22">
+        <f>(I19-H19)/1220000</f>
+        <v>7.4377049180327868E-3</v>
+      </c>
+      <c r="J20" s="22">
+        <f>(J19-I19)/1220000</f>
+        <v>3.4648360655737703E-2</v>
+      </c>
+      <c r="K20" s="22">
+        <f>(K19-J19)/1220000</f>
+        <v>2.2024590163934425E-2</v>
+      </c>
+      <c r="L20" s="22">
+        <f>(L19-K19)/1220000</f>
+        <v>6.1829508196721311E-2</v>
+      </c>
+      <c r="M20" s="22">
+        <f>(M19-L19)/1220000</f>
+        <v>5.9139344262295083E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="22">
+        <v>3</v>
+      </c>
+      <c r="C21" s="22">
+        <v>4.8490254098360657</v>
+      </c>
+      <c r="D21" s="22">
+        <v>310479869</v>
+      </c>
+      <c r="E21" s="22">
+        <v>310501639</v>
+      </c>
+      <c r="F21" s="22">
+        <v>311706177</v>
+      </c>
+      <c r="G21" s="22">
+        <v>311724547</v>
+      </c>
+      <c r="H21" s="23">
+        <v>312506155</v>
+      </c>
+      <c r="I21" s="23">
+        <v>312515240</v>
+      </c>
+      <c r="J21" s="22">
+        <v>312557131</v>
+      </c>
+      <c r="K21" s="22">
+        <v>312584001</v>
+      </c>
+      <c r="L21" s="23">
+        <v>312658830</v>
+      </c>
+      <c r="M21" s="22">
+        <v>312666045</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="E22" s="22">
+        <f>(E21-D21)/1220000</f>
+        <v>1.7844262295081969E-2</v>
+      </c>
+      <c r="F22" s="22">
+        <f>(F21-E21)/1220000</f>
+        <v>0.98732622950819671</v>
+      </c>
+      <c r="G22" s="22">
+        <f>(G21-F21)/1220000</f>
+        <v>1.5057377049180328E-2</v>
+      </c>
+      <c r="H22" s="22">
+        <f>(H21-G21)/1220000</f>
+        <v>0.64066229508196726</v>
+      </c>
+      <c r="I22" s="22">
+        <f>(I21-H21)/1220000</f>
+        <v>7.4467213114754096E-3</v>
+      </c>
+      <c r="J22" s="22">
+        <f>(J21-I21)/1220000</f>
+        <v>3.4336885245901637E-2</v>
+      </c>
+      <c r="K22" s="22">
+        <f>(K21-J21)/1220000</f>
+        <v>2.2024590163934425E-2</v>
+      </c>
+      <c r="L22" s="22">
+        <f>(L21-K21)/1220000</f>
+        <v>6.1335245901639343E-2</v>
+      </c>
+      <c r="M22" s="22">
+        <f>(M21-L21)/1220000</f>
+        <v>5.9139344262295083E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="22">
+        <v>4</v>
+      </c>
+      <c r="C23" s="22">
+        <v>4.8490254098360657</v>
+      </c>
+      <c r="D23" s="22">
+        <v>320980305</v>
+      </c>
+      <c r="E23" s="22">
+        <v>321002075</v>
+      </c>
+      <c r="F23" s="22">
+        <v>322206611</v>
+      </c>
+      <c r="G23" s="22">
+        <v>322224981</v>
+      </c>
+      <c r="H23" s="23">
+        <v>323006589</v>
+      </c>
+      <c r="I23" s="23">
+        <v>323015674</v>
+      </c>
+      <c r="J23" s="22">
+        <v>323051148</v>
+      </c>
+      <c r="K23" s="22">
+        <v>323078018</v>
+      </c>
+      <c r="L23" s="23">
+        <v>323152847</v>
+      </c>
+      <c r="M23" s="22">
+        <v>323160062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="E24" s="22">
+        <f>(E23-D23)/1220000</f>
+        <v>1.7844262295081969E-2</v>
+      </c>
+      <c r="F24" s="22">
+        <f>(F23-E23)/1220000</f>
+        <v>0.98732459016393448</v>
+      </c>
+      <c r="G24" s="22">
+        <f>(G23-F23)/1220000</f>
+        <v>1.5057377049180328E-2</v>
+      </c>
+      <c r="H24" s="22">
+        <f>(H23-G23)/1220000</f>
+        <v>0.64066229508196726</v>
+      </c>
+      <c r="I24" s="22">
+        <f>(I23-H23)/1220000</f>
+        <v>7.4467213114754096E-3</v>
+      </c>
+      <c r="J24" s="22">
+        <f>(J23-I23)/1220000</f>
+        <v>2.9077049180327868E-2</v>
+      </c>
+      <c r="K24" s="22">
+        <f>(K23-J23)/1220000</f>
+        <v>2.2024590163934425E-2</v>
+      </c>
+      <c r="L24" s="22">
+        <f>(L23-K23)/1220000</f>
+        <v>6.1335245901639343E-2</v>
+      </c>
+      <c r="M24" s="22">
+        <f>(M23-L23)/1220000</f>
+        <v>5.9139344262295083E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="33" spans="4:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="14"/>
+    <col min="2" max="7" width="21.7109375" style="8"/>
+    <col min="8" max="8" width="21.7109375" style="17"/>
+    <col min="9" max="9" width="21.7109375" style="1"/>
+    <col min="10" max="10" width="21.7109375" style="13"/>
+    <col min="11" max="11" width="21.7109375" style="8"/>
+    <col min="12" max="12" width="21.7109375" style="1"/>
+    <col min="13" max="16384" width="21.7109375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="8">
+        <v>1220000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22">
+        <v>22.686581147540984</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1739808949</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1739830733</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1743786177</v>
+      </c>
+      <c r="G5" s="22">
+        <v>1743804508</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1747343855</v>
+      </c>
+      <c r="I5" s="23">
+        <v>1747352994</v>
+      </c>
+      <c r="J5" s="22">
+        <v>1747992756</v>
+      </c>
+      <c r="K5" s="22">
+        <v>1748019648</v>
+      </c>
+      <c r="L5" s="23">
+        <v>1748110151</v>
+      </c>
+      <c r="M5" s="22">
+        <v>1748117363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="E6" s="22">
+        <f>(E5-D5)/1220000</f>
+        <v>1.7855737704918034E-2</v>
+      </c>
+      <c r="F6" s="22">
+        <f>(F5-E5)/1220000</f>
+        <v>3.2421672131147541</v>
+      </c>
+      <c r="G6" s="22">
+        <f>(G5-F5)/1220000</f>
+        <v>1.5025409836065574E-2</v>
+      </c>
+      <c r="H6" s="22">
+        <f>(H5-G5)/1220000</f>
+        <v>2.9011040983606557</v>
+      </c>
+      <c r="I6" s="22">
+        <f>(I5-H5)/1220000</f>
+        <v>7.4909836065573769E-3</v>
+      </c>
+      <c r="J6" s="22">
+        <f>(J5-I5)/1220000</f>
+        <v>0.52439508196721307</v>
+      </c>
+      <c r="K6" s="22">
+        <f>(K5-J5)/1220000</f>
+        <v>2.2042622950819671E-2</v>
+      </c>
+      <c r="L6" s="22">
+        <f>(L5-K5)/1220000</f>
+        <v>7.4182786885245905E-2</v>
+      </c>
+      <c r="M6" s="22">
+        <f>(M5-L5)/1220000</f>
+        <v>5.9114754098360655E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="22">
+        <v>2</v>
+      </c>
+      <c r="C7" s="22">
+        <v>22.686581147540984</v>
+      </c>
+      <c r="D7" s="22">
+        <v>4179036891</v>
+      </c>
+      <c r="E7" s="22">
+        <v>4179058675</v>
+      </c>
+      <c r="F7" s="22">
+        <v>4183014076</v>
+      </c>
+      <c r="G7" s="22">
+        <v>4183032407</v>
+      </c>
+      <c r="H7" s="23">
+        <v>4186571769</v>
+      </c>
+      <c r="I7" s="23">
+        <v>4186580908</v>
+      </c>
+      <c r="J7" s="22">
+        <v>4186978482</v>
+      </c>
+      <c r="K7" s="22">
+        <v>4187005374</v>
+      </c>
+      <c r="L7" s="23">
+        <v>4187095943</v>
+      </c>
+      <c r="M7" s="22">
+        <v>4187103155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="E8" s="22">
+        <f>(E7-D7)/1220000</f>
+        <v>1.7855737704918034E-2</v>
+      </c>
+      <c r="F8" s="22">
+        <f>(F7-E7)/1220000</f>
+        <v>3.2421319672131146</v>
+      </c>
+      <c r="G8" s="22">
+        <f>(G7-F7)/1220000</f>
+        <v>1.5025409836065574E-2</v>
+      </c>
+      <c r="H8" s="22">
+        <f>(H7-G7)/1220000</f>
+        <v>2.901116393442623</v>
+      </c>
+      <c r="I8" s="22">
+        <f>(I7-H7)/1220000</f>
+        <v>7.4909836065573769E-3</v>
+      </c>
+      <c r="J8" s="22">
+        <f>(J7-I7)/1220000</f>
+        <v>0.32588032786885246</v>
+      </c>
+      <c r="K8" s="22">
+        <f>(K7-J7)/1220000</f>
+        <v>2.2042622950819671E-2</v>
+      </c>
+      <c r="L8" s="22">
+        <f>(L7-K7)/1220000</f>
+        <v>7.4236885245901635E-2</v>
+      </c>
+      <c r="M8" s="22">
+        <f>(M7-L7)/1220000</f>
+        <v>5.9114754098360655E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="22">
+        <v>3</v>
+      </c>
+      <c r="C9" s="22">
+        <v>6.0554721310000001</v>
+      </c>
+      <c r="D9" s="22">
+        <v>4136414957</v>
+      </c>
+      <c r="E9" s="22">
+        <v>4136436698</v>
+      </c>
+      <c r="F9" s="22">
+        <v>4138540750</v>
+      </c>
+      <c r="G9" s="22">
+        <v>4138559063</v>
+      </c>
+      <c r="H9" s="23">
+        <v>4139534680</v>
+      </c>
+      <c r="I9" s="23">
+        <v>4139543819</v>
+      </c>
+      <c r="J9" s="22">
+        <v>4139941496</v>
+      </c>
+      <c r="K9" s="22">
+        <v>4139968323</v>
+      </c>
+      <c r="L9" s="23">
+        <v>4140058854</v>
+      </c>
+      <c r="M9" s="22">
+        <v>4140066072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="E10" s="22">
+        <f>(E9-D9)/1220000</f>
+        <v>1.7820491803278687E-2</v>
+      </c>
+      <c r="F10" s="22">
+        <f>(F9-E9)/1220000</f>
+        <v>1.7246327868852458</v>
+      </c>
+      <c r="G10" s="22">
+        <f>(G9-F9)/1220000</f>
+        <v>1.5010655737704917E-2</v>
+      </c>
+      <c r="H10" s="22">
+        <f>(H9-G9)/1220000</f>
+        <v>0.79968606557377053</v>
+      </c>
+      <c r="I10" s="22">
+        <f>(I9-H9)/1220000</f>
+        <v>7.4909836065573769E-3</v>
+      </c>
+      <c r="J10" s="22">
+        <f>(J9-I9)/1220000</f>
+        <v>0.32596475409836068</v>
+      </c>
+      <c r="K10" s="22">
+        <f>(K9-J9)/1220000</f>
+        <v>2.1989344262295082E-2</v>
+      </c>
+      <c r="L10" s="22">
+        <f>(L9-K9)/1220000</f>
+        <v>7.4205737704918034E-2</v>
+      </c>
+      <c r="M10" s="22">
+        <f>(M9-L9)/1220000</f>
+        <v>5.9163934426229511E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="22">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22">
+        <v>6.0554721310000001</v>
+      </c>
+      <c r="D11" s="22">
+        <v>4140975273</v>
+      </c>
+      <c r="E11" s="22">
+        <v>4140997014</v>
+      </c>
+      <c r="F11" s="22">
+        <v>4143101085</v>
+      </c>
+      <c r="G11" s="22">
+        <v>4143119398</v>
+      </c>
+      <c r="H11" s="23">
+        <v>4144095016</v>
+      </c>
+      <c r="I11" s="23">
+        <v>4144104155</v>
+      </c>
+      <c r="J11" s="22">
+        <v>4144380035</v>
+      </c>
+      <c r="K11" s="22">
+        <v>4144406862</v>
+      </c>
+      <c r="L11" s="23">
+        <v>4144497189</v>
+      </c>
+      <c r="M11" s="22">
+        <v>4144504407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="E12" s="22">
+        <f>(E11-D11)/1220000</f>
+        <v>1.7820491803278687E-2</v>
+      </c>
+      <c r="F12" s="22">
+        <f>(F11-E11)/1220000</f>
+        <v>1.7246483606557377</v>
+      </c>
+      <c r="G12" s="22">
+        <f>(G11-F11)/1220000</f>
+        <v>1.5010655737704917E-2</v>
+      </c>
+      <c r="H12" s="22">
+        <f>(H11-G11)/1220000</f>
+        <v>0.79968688524590159</v>
+      </c>
+      <c r="I12" s="22">
+        <f>(I11-H11)/1220000</f>
+        <v>7.4909836065573769E-3</v>
+      </c>
+      <c r="J12" s="22">
+        <f>(J11-I11)/1220000</f>
+        <v>0.2261311475409836</v>
+      </c>
+      <c r="K12" s="22">
+        <f>(K11-J11)/1220000</f>
+        <v>2.1989344262295082E-2</v>
+      </c>
+      <c r="L12" s="22">
+        <f>(L11-K11)/1220000</f>
+        <v>7.403852459016394E-2</v>
+      </c>
+      <c r="M12" s="22">
+        <f>(M11-L11)/1220000</f>
+        <v>5.9163934426229511E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:13" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="17" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="22">
+        <v>1</v>
+      </c>
+      <c r="C17" s="22">
+        <v>15.81963852</v>
+      </c>
+      <c r="D17" s="22">
+        <v>329545912</v>
+      </c>
+      <c r="E17" s="22">
+        <v>329567682</v>
+      </c>
+      <c r="F17" s="22">
+        <v>331732460</v>
+      </c>
+      <c r="G17" s="22">
+        <v>331750830</v>
+      </c>
+      <c r="H17" s="23">
+        <v>334281280</v>
+      </c>
+      <c r="I17" s="23">
+        <v>334290354</v>
+      </c>
+      <c r="J17" s="22">
+        <v>334495357</v>
+      </c>
+      <c r="K17" s="22">
+        <v>334522213</v>
+      </c>
+      <c r="L17" s="23">
+        <v>334597312</v>
+      </c>
+      <c r="M17" s="22">
+        <v>334604527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="E18" s="22">
+        <f>(E17-D17)/1220000</f>
+        <v>1.7844262295081969E-2</v>
+      </c>
+      <c r="F18" s="22">
+        <f t="shared" ref="F18:M18" si="0">(F17-E17)/1220000</f>
+        <v>1.7744081967213114</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="0"/>
+        <v>1.5057377049180328E-2</v>
+      </c>
+      <c r="H18" s="22">
+        <f t="shared" si="0"/>
+        <v>2.0741393442622953</v>
+      </c>
+      <c r="I18" s="22">
+        <f t="shared" si="0"/>
+        <v>7.4377049180327868E-3</v>
+      </c>
+      <c r="J18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.16803524590163935</v>
+      </c>
+      <c r="K18" s="22">
+        <f t="shared" si="0"/>
+        <v>2.201311475409836E-2</v>
+      </c>
+      <c r="L18" s="22">
+        <f t="shared" si="0"/>
+        <v>6.1556557377049181E-2</v>
+      </c>
+      <c r="M18" s="22">
+        <f t="shared" si="0"/>
+        <v>5.9139344262295083E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="22">
+        <v>2</v>
+      </c>
+      <c r="C19" s="22">
+        <v>15.81963852</v>
+      </c>
+      <c r="D19" s="22">
+        <v>335102579</v>
+      </c>
+      <c r="E19" s="22">
+        <v>335124349</v>
+      </c>
+      <c r="F19" s="22">
+        <v>337289111</v>
+      </c>
+      <c r="G19" s="22">
+        <v>337307481</v>
+      </c>
+      <c r="H19" s="23">
+        <v>339837913</v>
+      </c>
+      <c r="I19" s="23">
+        <v>339846987</v>
+      </c>
+      <c r="J19" s="22">
+        <v>339971988</v>
+      </c>
+      <c r="K19" s="22">
+        <v>339998844</v>
+      </c>
+      <c r="L19" s="23">
+        <v>340073829</v>
+      </c>
+      <c r="M19" s="22">
+        <v>340081044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="E20" s="22">
+        <f>(E19-D19)/1220000</f>
+        <v>1.7844262295081969E-2</v>
+      </c>
+      <c r="F20" s="22">
+        <f t="shared" ref="F20:M20" si="1">(F19-E19)/1220000</f>
+        <v>1.7743950819672132</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="1"/>
+        <v>1.5057377049180328E-2</v>
+      </c>
+      <c r="H20" s="22">
+        <f t="shared" si="1"/>
+        <v>2.0741245901639345</v>
+      </c>
+      <c r="I20" s="22">
+        <f t="shared" si="1"/>
+        <v>7.4377049180327868E-3</v>
+      </c>
+      <c r="J20" s="22">
+        <f t="shared" si="1"/>
+        <v>0.10245983606557377</v>
+      </c>
+      <c r="K20" s="22">
+        <f t="shared" si="1"/>
+        <v>2.201311475409836E-2</v>
+      </c>
+      <c r="L20" s="22">
+        <f t="shared" si="1"/>
+        <v>6.1463114754098359E-2</v>
+      </c>
+      <c r="M20" s="22">
+        <f t="shared" si="1"/>
+        <v>5.9139344262295083E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="22">
+        <v>3</v>
+      </c>
+      <c r="C21" s="22">
+        <v>4.8490254098360657</v>
+      </c>
+      <c r="D21" s="22">
+        <v>324053096</v>
+      </c>
+      <c r="E21" s="22">
+        <v>324074866</v>
+      </c>
+      <c r="F21" s="22">
+        <v>325279413</v>
+      </c>
+      <c r="G21" s="22">
+        <v>325297783</v>
+      </c>
+      <c r="H21" s="23">
+        <v>326079394</v>
+      </c>
+      <c r="I21" s="23">
+        <v>326088479</v>
+      </c>
+      <c r="J21" s="22">
+        <v>326213093</v>
+      </c>
+      <c r="K21" s="22">
+        <v>326239949</v>
+      </c>
+      <c r="L21" s="23">
+        <v>326314778</v>
+      </c>
+      <c r="M21" s="22">
+        <v>326321993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="E22" s="22">
+        <f>(E21-D21)/1220000</f>
+        <v>1.7844262295081969E-2</v>
+      </c>
+      <c r="F22" s="22">
+        <f t="shared" ref="F22:M22" si="2">(F21-E21)/1220000</f>
+        <v>0.98733360655737701</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="2"/>
+        <v>1.5057377049180328E-2</v>
+      </c>
+      <c r="H22" s="22">
+        <f t="shared" si="2"/>
+        <v>0.64066475409836066</v>
+      </c>
+      <c r="I22" s="22">
+        <f t="shared" si="2"/>
+        <v>7.4467213114754096E-3</v>
+      </c>
+      <c r="J22" s="22">
+        <f t="shared" si="2"/>
+        <v>0.10214262295081968</v>
+      </c>
+      <c r="K22" s="22">
+        <f t="shared" si="2"/>
+        <v>2.201311475409836E-2</v>
+      </c>
+      <c r="L22" s="22">
+        <f t="shared" si="2"/>
+        <v>6.1335245901639343E-2</v>
+      </c>
+      <c r="M22" s="22">
+        <f t="shared" si="2"/>
+        <v>5.9139344262295083E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="22">
+        <v>4</v>
+      </c>
+      <c r="C23" s="22">
+        <v>4.8490254098360657</v>
+      </c>
+      <c r="D23" s="22">
+        <v>326819027</v>
+      </c>
+      <c r="E23" s="22">
+        <v>326840797</v>
+      </c>
+      <c r="F23" s="22">
+        <v>328045368</v>
+      </c>
+      <c r="G23" s="22">
+        <v>328063738</v>
+      </c>
+      <c r="H23" s="23">
+        <v>328845346</v>
+      </c>
+      <c r="I23" s="23">
+        <v>328854431</v>
+      </c>
+      <c r="J23" s="22">
+        <v>328939045</v>
+      </c>
+      <c r="K23" s="22">
+        <v>328965901</v>
+      </c>
+      <c r="L23" s="23">
+        <v>329040730</v>
+      </c>
+      <c r="M23" s="22">
+        <v>329047945</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="E24" s="22">
+        <f>(E23-D23)/1220000</f>
+        <v>1.7844262295081969E-2</v>
+      </c>
+      <c r="F24" s="22">
+        <f t="shared" ref="F24:M24" si="3">(F23-E23)/1220000</f>
+        <v>0.98735327868852463</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="3"/>
+        <v>1.5057377049180328E-2</v>
+      </c>
+      <c r="H24" s="22">
+        <f t="shared" si="3"/>
+        <v>0.64066229508196726</v>
+      </c>
+      <c r="I24" s="22">
+        <f t="shared" si="3"/>
+        <v>7.4467213114754096E-3</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="3"/>
+        <v>6.9355737704918027E-2</v>
+      </c>
+      <c r="K24" s="22">
+        <f t="shared" si="3"/>
+        <v>2.201311475409836E-2</v>
+      </c>
+      <c r="L24" s="22">
+        <f t="shared" si="3"/>
+        <v>6.1335245901639343E-2</v>
+      </c>
+      <c r="M24" s="22">
+        <f t="shared" si="3"/>
+        <v>5.9139344262295083E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="29" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="14"/>
+    <col min="2" max="7" width="21.7109375" style="8"/>
+    <col min="8" max="8" width="21.7109375" style="17"/>
+    <col min="9" max="9" width="21.7109375" style="1"/>
+    <col min="10" max="10" width="21.7109375" style="13"/>
+    <col min="11" max="11" width="21.7109375" style="8"/>
+    <col min="12" max="12" width="21.7109375" style="1"/>
+    <col min="13" max="16384" width="21.7109375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="8">
+        <v>1220000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22">
+        <v>22.686581147540984</v>
+      </c>
+      <c r="D5" s="22">
+        <v>251207397</v>
+      </c>
+      <c r="E5" s="22">
+        <v>251229125</v>
+      </c>
+      <c r="F5" s="22">
+        <v>255124540</v>
+      </c>
+      <c r="G5" s="22">
+        <v>255142881</v>
+      </c>
+      <c r="H5" s="23">
+        <v>258682203</v>
+      </c>
+      <c r="I5" s="23">
+        <v>258691303</v>
+      </c>
+      <c r="J5" s="22">
+        <v>259264460</v>
+      </c>
+      <c r="K5" s="22">
+        <v>259291308</v>
+      </c>
+      <c r="L5" s="23">
+        <v>259381746</v>
+      </c>
+      <c r="M5" s="22">
+        <v>259388956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="E6" s="22">
+        <f>(E5-D5)/1220000</f>
+        <v>1.7809836065573771E-2</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" ref="F6:M6" si="0">(F5-E5)/1220000</f>
+        <v>3.1929631147540984</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="0"/>
+        <v>1.5033606557377049E-2</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" si="0"/>
+        <v>2.9010836065573771</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="0"/>
+        <v>7.4590163934426228E-3</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="0"/>
+        <v>0.46980081967213116</v>
+      </c>
+      <c r="K6" s="22">
+        <f t="shared" si="0"/>
+        <v>2.200655737704918E-2</v>
+      </c>
+      <c r="L6" s="22">
+        <f t="shared" si="0"/>
+        <v>7.4129508196721317E-2</v>
+      </c>
+      <c r="M6" s="22">
+        <f t="shared" si="0"/>
+        <v>5.9098360655737703E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="22">
+        <v>2</v>
+      </c>
+      <c r="C7" s="22">
+        <v>22.686581147540984</v>
+      </c>
+      <c r="D7" s="22">
+        <v>260297037</v>
+      </c>
+      <c r="E7" s="22">
+        <v>260318765</v>
+      </c>
+      <c r="F7" s="22">
+        <v>264214179</v>
+      </c>
+      <c r="G7" s="22">
+        <v>264232520</v>
+      </c>
+      <c r="H7" s="23">
+        <v>267771849</v>
+      </c>
+      <c r="I7" s="23">
+        <v>267780949</v>
+      </c>
+      <c r="J7" s="22">
+        <v>268109089</v>
+      </c>
+      <c r="K7" s="22">
+        <v>268135937</v>
+      </c>
+      <c r="L7" s="23">
+        <v>268226375</v>
+      </c>
+      <c r="M7" s="22">
+        <v>268233585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="E8" s="22">
+        <f>(E7-D7)/1220000</f>
+        <v>1.7809836065573771E-2</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" ref="F8:M8" si="1">(F7-E7)/1220000</f>
+        <v>3.1929622950819674</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="1"/>
+        <v>1.5033606557377049E-2</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="1"/>
+        <v>2.9010893442622949</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="1"/>
+        <v>7.4590163934426228E-3</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="1"/>
+        <v>0.26896721311475408</v>
+      </c>
+      <c r="K8" s="22">
+        <f t="shared" si="1"/>
+        <v>2.200655737704918E-2</v>
+      </c>
+      <c r="L8" s="22">
+        <f t="shared" si="1"/>
+        <v>7.4129508196721317E-2</v>
+      </c>
+      <c r="M8" s="22">
+        <f t="shared" si="1"/>
+        <v>5.9098360655737703E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="22">
+        <v>3</v>
+      </c>
+      <c r="C9" s="22">
+        <v>6.0554721310000001</v>
+      </c>
+      <c r="D9" s="22">
+        <v>269139215</v>
+      </c>
+      <c r="E9" s="22">
+        <v>269160943</v>
+      </c>
+      <c r="F9" s="22">
+        <v>271230538</v>
+      </c>
+      <c r="G9" s="22">
+        <v>271248879</v>
+      </c>
+      <c r="H9" s="23">
+        <v>272224016</v>
+      </c>
+      <c r="I9" s="23">
+        <v>272233096</v>
+      </c>
+      <c r="J9" s="22">
+        <v>272558462</v>
+      </c>
+      <c r="K9" s="22">
+        <v>272585240</v>
+      </c>
+      <c r="L9" s="23">
+        <v>272675608</v>
+      </c>
+      <c r="M9" s="22">
+        <v>272682818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="E10" s="22">
+        <f>(E9-D9)/1220000</f>
+        <v>1.7809836065573771E-2</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" ref="F10:M10" si="2">(F9-E9)/1220000</f>
+        <v>1.696389344262295</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="2"/>
+        <v>1.5033606557377049E-2</v>
+      </c>
+      <c r="H10" s="22">
+        <f t="shared" si="2"/>
+        <v>0.79929262295081971</v>
+      </c>
+      <c r="I10" s="22">
+        <f t="shared" si="2"/>
+        <v>7.4426229508196724E-3</v>
+      </c>
+      <c r="J10" s="22">
+        <f t="shared" si="2"/>
+        <v>0.2666934426229508</v>
+      </c>
+      <c r="K10" s="22">
+        <f t="shared" si="2"/>
+        <v>2.1949180327868852E-2</v>
+      </c>
+      <c r="L10" s="22">
+        <f t="shared" si="2"/>
+        <v>7.4072131147540979E-2</v>
+      </c>
+      <c r="M10" s="22">
+        <f t="shared" si="2"/>
+        <v>5.9098360655737703E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="22">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22">
+        <v>6.0554721310000001</v>
+      </c>
+      <c r="D11" s="22">
+        <v>273188318</v>
+      </c>
+      <c r="E11" s="22">
+        <v>273210046</v>
+      </c>
+      <c r="F11" s="22">
+        <v>275279635</v>
+      </c>
+      <c r="G11" s="22">
+        <v>275297976</v>
+      </c>
+      <c r="H11" s="23">
+        <v>276273531</v>
+      </c>
+      <c r="I11" s="23">
+        <v>276282622</v>
+      </c>
+      <c r="J11" s="22">
+        <v>276485579</v>
+      </c>
+      <c r="K11" s="22">
+        <v>276512357</v>
+      </c>
+      <c r="L11" s="23">
+        <v>276603021</v>
+      </c>
+      <c r="M11" s="22">
+        <v>276610231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="E12" s="22">
+        <f>(E11-D11)/1220000</f>
+        <v>1.7809836065573771E-2</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" ref="F12:M12" si="3">(F11-E11)/1220000</f>
+        <v>1.6963844262295082</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="3"/>
+        <v>1.5033606557377049E-2</v>
+      </c>
+      <c r="H12" s="22">
+        <f t="shared" si="3"/>
+        <v>0.79963524590163937</v>
+      </c>
+      <c r="I12" s="22">
+        <f t="shared" si="3"/>
+        <v>7.4516393442622952E-3</v>
+      </c>
+      <c r="J12" s="22">
+        <f t="shared" si="3"/>
+        <v>0.16635819672131147</v>
+      </c>
+      <c r="K12" s="22">
+        <f t="shared" si="3"/>
+        <v>2.1949180327868852E-2</v>
+      </c>
+      <c r="L12" s="22">
+        <f t="shared" si="3"/>
+        <v>7.431475409836065E-2</v>
+      </c>
+      <c r="M12" s="22">
+        <f t="shared" si="3"/>
+        <v>5.9098360655737703E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:13" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="22">
+        <v>1</v>
+      </c>
+      <c r="C15" s="22">
+        <v>15.81963852</v>
+      </c>
+      <c r="D15" s="22">
+        <v>363630564</v>
+      </c>
+      <c r="E15" s="22">
+        <v>363652383</v>
+      </c>
+      <c r="F15" s="22">
+        <v>365817140</v>
+      </c>
+      <c r="G15" s="22">
+        <v>365835505</v>
+      </c>
+      <c r="H15" s="23">
+        <v>368325340</v>
+      </c>
+      <c r="I15" s="23">
+        <v>368334416</v>
+      </c>
+      <c r="J15" s="22">
+        <v>368538342</v>
+      </c>
+      <c r="K15" s="22">
+        <v>368565180</v>
+      </c>
+      <c r="L15" s="23">
+        <v>368640125</v>
+      </c>
+      <c r="M15" s="22">
+        <v>368647332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="E16" s="22">
+        <f>(E15-D15)/1220000</f>
+        <v>1.7884426229508196E-2</v>
+      </c>
+      <c r="F16" s="22">
+        <f>(F15-E15)/1220000</f>
+        <v>1.7743909836065574</v>
+      </c>
+      <c r="G16" s="22">
+        <f>(G15-F15)/1220000</f>
+        <v>1.505327868852459E-2</v>
+      </c>
+      <c r="H16" s="22">
+        <f>(H15-G15)/1220000</f>
+        <v>2.0408483606557377</v>
+      </c>
+      <c r="I16" s="22">
+        <f>(I15-H15)/1220000</f>
+        <v>7.439344262295082E-3</v>
+      </c>
+      <c r="J16" s="22">
+        <f>(J15-I15)/1220000</f>
+        <v>0.16715245901639345</v>
+      </c>
+      <c r="K16" s="22">
+        <f>(K15-J15)/1220000</f>
+        <v>2.1998360655737705E-2</v>
+      </c>
+      <c r="L16" s="22">
+        <f>(L15-K15)/1220000</f>
+        <v>6.1430327868852462E-2</v>
+      </c>
+      <c r="M16" s="22">
+        <f>(M15-L15)/1220000</f>
+        <v>5.9073770491803275E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="22">
+        <v>2</v>
+      </c>
+      <c r="C17" s="22">
+        <v>15.81963852</v>
+      </c>
+      <c r="D17" s="22">
+        <v>369145442</v>
+      </c>
+      <c r="E17" s="22">
+        <v>369167261</v>
+      </c>
+      <c r="F17" s="22">
+        <v>371332052</v>
+      </c>
+      <c r="G17" s="22">
+        <v>371350417</v>
+      </c>
+      <c r="H17" s="23">
+        <v>373840220</v>
+      </c>
+      <c r="I17" s="23">
+        <v>373849296</v>
+      </c>
+      <c r="J17" s="22">
+        <v>373969401</v>
+      </c>
+      <c r="K17" s="22">
+        <v>373996239</v>
+      </c>
+      <c r="L17" s="23">
+        <v>374071127</v>
+      </c>
+      <c r="M17" s="22">
+        <v>374078334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="E18" s="22">
+        <f>(E17-D17)/1220000</f>
+        <v>1.7884426229508196E-2</v>
+      </c>
+      <c r="F18" s="22">
+        <f>(F17-E17)/1220000</f>
+        <v>1.7744188524590163</v>
+      </c>
+      <c r="G18" s="22">
+        <f>(G17-F17)/1220000</f>
+        <v>1.505327868852459E-2</v>
+      </c>
+      <c r="H18" s="22">
+        <f>(H17-G17)/1220000</f>
+        <v>2.0408221311475412</v>
+      </c>
+      <c r="I18" s="22">
+        <f>(I17-H17)/1220000</f>
+        <v>7.439344262295082E-3</v>
+      </c>
+      <c r="J18" s="22">
+        <f>(J17-I17)/1220000</f>
+        <v>9.8446721311475416E-2</v>
+      </c>
+      <c r="K18" s="22">
+        <f>(K17-J17)/1220000</f>
+        <v>2.1998360655737705E-2</v>
+      </c>
+      <c r="L18" s="22">
+        <f>(L17-K17)/1220000</f>
+        <v>6.1383606557377048E-2</v>
+      </c>
+      <c r="M18" s="22">
+        <f>(M17-L17)/1220000</f>
+        <v>5.9073770491803275E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="22">
+        <v>3</v>
+      </c>
+      <c r="C19" s="22">
+        <v>4.8490254098360657</v>
+      </c>
+      <c r="D19" s="22">
+        <v>374575528</v>
+      </c>
+      <c r="E19" s="22">
+        <v>374597347</v>
+      </c>
+      <c r="F19" s="22">
+        <v>375801920</v>
+      </c>
+      <c r="G19" s="22">
+        <v>375820285</v>
+      </c>
+      <c r="H19" s="23">
+        <v>376590837</v>
+      </c>
+      <c r="I19" s="23">
+        <v>376599892</v>
+      </c>
+      <c r="J19" s="22">
+        <v>376719213</v>
+      </c>
+      <c r="K19" s="22">
+        <v>376746051</v>
+      </c>
+      <c r="L19" s="23">
+        <v>376820939</v>
+      </c>
+      <c r="M19" s="22">
+        <v>376828146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="E20" s="22">
+        <f>(E19-D19)/1220000</f>
+        <v>1.7884426229508196E-2</v>
+      </c>
+      <c r="F20" s="22">
+        <f>(F19-E19)/1220000</f>
+        <v>0.98735491803278685</v>
+      </c>
+      <c r="G20" s="22">
+        <f>(G19-F19)/1220000</f>
+        <v>1.505327868852459E-2</v>
+      </c>
+      <c r="H20" s="22">
+        <f>(H19-G19)/1220000</f>
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="I20" s="22">
+        <f>(I19-H19)/1220000</f>
+        <v>7.422131147540984E-3</v>
+      </c>
+      <c r="J20" s="22">
+        <f>(J19-I19)/1220000</f>
+        <v>9.7804098360655733E-2</v>
+      </c>
+      <c r="K20" s="22">
+        <f>(K19-J19)/1220000</f>
+        <v>2.1998360655737705E-2</v>
+      </c>
+      <c r="L20" s="22">
+        <f>(L19-K19)/1220000</f>
+        <v>6.1383606557377048E-2</v>
+      </c>
+      <c r="M20" s="22">
+        <f>(M19-L19)/1220000</f>
+        <v>5.9073770491803275E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="22">
+        <v>4</v>
+      </c>
+      <c r="C21" s="22">
+        <v>4.8490254098360657</v>
+      </c>
+      <c r="D21" s="22">
+        <v>377325179</v>
+      </c>
+      <c r="E21" s="22">
+        <v>377346998</v>
+      </c>
+      <c r="F21" s="22">
+        <v>378551545</v>
+      </c>
+      <c r="G21" s="22">
+        <v>378569910</v>
+      </c>
+      <c r="H21" s="23">
+        <v>379340462</v>
+      </c>
+      <c r="I21" s="23">
+        <v>379349517</v>
+      </c>
+      <c r="J21" s="22">
+        <v>379426847</v>
+      </c>
+      <c r="K21" s="22">
+        <v>379453685</v>
+      </c>
+      <c r="L21" s="23">
+        <v>379528573</v>
+      </c>
+      <c r="M21" s="22">
+        <v>379535780</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="E22" s="22">
+        <f>(E21-D21)/1220000</f>
+        <v>1.7884426229508196E-2</v>
+      </c>
+      <c r="F22" s="22">
+        <f>(F21-E21)/1220000</f>
+        <v>0.98733360655737701</v>
+      </c>
+      <c r="G22" s="22">
+        <f>(G21-F21)/1220000</f>
+        <v>1.505327868852459E-2</v>
+      </c>
+      <c r="H22" s="22">
+        <f>(H21-G21)/1220000</f>
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="I22" s="22">
+        <f>(I21-H21)/1220000</f>
+        <v>7.422131147540984E-3</v>
+      </c>
+      <c r="J22" s="22">
+        <f>(J21-I21)/1220000</f>
+        <v>6.3385245901639339E-2</v>
+      </c>
+      <c r="K22" s="22">
+        <f>(K21-J21)/1220000</f>
+        <v>2.1998360655737705E-2</v>
+      </c>
+      <c r="L22" s="22">
+        <f>(L21-K21)/1220000</f>
+        <v>6.1383606557377048E-2</v>
+      </c>
+      <c r="M22" s="22">
+        <f>(M21-L21)/1220000</f>
+        <v>5.9073770491803275E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="13"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="13"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="13"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="13"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="34" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>